--- a/biology/Médecine/SGLT2/SGLT2.xlsx
+++ b/biology/Médecine/SGLT2/SGLT2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SGLT2 « sodium/glucose cotransporteur 2 » est une protéine permettant la réabsorption du glucose par le tubule rénal proximal.
 </t>
@@ -511,9 +523,11 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son expression semble être augmentée dans le diabète de type 2[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son expression semble être augmentée dans le diabète de type 2.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son gène est le SLC5A2 (solute carrier family 5 (sodium/glucose cotransporter)), appelé aussi SGLT2 et est situé sur le chromosome 16 humain.
 Plusieurs mutations de ce gène ont été décrites, entraînant, même à l'état hétérozygote une augmentation de la glycosurie (taux de sucre dans les urines).
@@ -574,9 +590,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inhibition du SGLT2 entraîne une augmentation de la glycosurie et constitue l'une des manières de traiter le diabète de type 2[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inhibition du SGLT2 entraîne une augmentation de la glycosurie et constitue l'une des manières de traiter le diabète de type 2.
 </t>
         </is>
       </c>
